--- a/AccessibleDashboardData/2021-10-27.xlsx
+++ b/AccessibleDashboardData/2021-10-27.xlsx
@@ -13721,7 +13721,7 @@
         <v>869</v>
       </c>
       <c r="B575">
-        <v>4005</v>
+        <v>3822</v>
       </c>
     </row>
     <row r="576" spans="1:2">
@@ -48934,7 +48934,7 @@
         <v>1700</v>
       </c>
       <c r="B4">
-        <v>4005</v>
+        <v>3822</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -48942,7 +48942,7 @@
         <v>1701</v>
       </c>
       <c r="B5">
-        <v>2449</v>
+        <v>2326</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -48950,7 +48950,7 @@
         <v>1702</v>
       </c>
       <c r="B6">
-        <v>1459</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -48958,7 +48958,7 @@
         <v>1703</v>
       </c>
       <c r="B7">
-        <v>97</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -48966,7 +48966,7 @@
         <v>1704</v>
       </c>
       <c r="B8">
-        <v>389</v>
+        <v>412</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -48974,7 +48974,7 @@
         <v>1705</v>
       </c>
       <c r="B9">
-        <v>60477</v>
+        <v>61146</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -48982,7 +48982,7 @@
         <v>1706</v>
       </c>
       <c r="B10">
-        <v>55800</v>
+        <v>56387</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -48990,7 +48990,7 @@
         <v>1707</v>
       </c>
       <c r="B11">
-        <v>10234</v>
+        <v>9270</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -48998,7 +48998,7 @@
         <v>1708</v>
       </c>
       <c r="B12">
-        <v>783</v>
+        <v>699</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -49006,7 +49006,7 @@
         <v>1709</v>
       </c>
       <c r="B13">
-        <v>136</v>
+        <v>115</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -49014,7 +49014,7 @@
         <v>1710</v>
       </c>
       <c r="B14">
-        <v>973</v>
+        <v>898</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -49022,7 +49022,7 @@
         <v>1711</v>
       </c>
       <c r="B15">
-        <v>7642</v>
+        <v>7603</v>
       </c>
     </row>
   </sheetData>
